--- a/biology/Mycologie/Inonotus_dryadeus/Inonotus_dryadeus.xlsx
+++ b/biology/Mycologie/Inonotus_dryadeus/Inonotus_dryadeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inonotus du chêne, Polypore larmoyant
-Inonotus dryadeus, l’Inonotus du chêne[1] ou Polypore larmoyant[1], est une espèce de champignons agaricomycètes de la famille des Hymenochaetaceae.
+Inonotus dryadeus, l’Inonotus du chêne ou Polypore larmoyant, est une espèce de champignons agaricomycètes de la famille des Hymenochaetaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 janvier 2023) :
 Inonotus dryadeus var. brevisporus (K.S.Thind &amp; Chatr.) Pegler, 1964
 Inonotus dryadeus var. dryadeus</t>
         </is>
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Inonotus dryadeus (Pers.) Murrill, 1908[2],[3].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus dryadeus Pers., 1799[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Inonotus du chêne[1], Polypore larmoyant[1], Pourridié des racines du chêne[1].
-Inonotus dryadeus a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Inonotus dryadeus (Pers.) Murrill, 1908,.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus dryadeus Pers., 1799.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Inonotus du chêne, Polypore larmoyant, Pourridié des racines du chêne.
+Inonotus dryadeus a pour synonymes :
 Boletus dryadeus Pers., 1799
 Boletus fomentarius var. dryadeus (Pers.) Pers., 1801
 Fomes dryadeus (Pers.) Gillot &amp; Lucand, 1890
@@ -589,7 +605,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) W.A. Murrill, « Family 5 - Polyporaceae, Part 2 », North American Flora, New York, vol. 9,‎ 12 mars 1908, p. 73-131 (ISSN 0078-1312, lire en ligne, consulté le 25 janvier 2023).</t>
         </is>
